--- a/Recycling/Met_rec_tech/metrec_tech_Min_target_Min.xlsx
+++ b/Recycling/Met_rec_tech/metrec_tech_Min_target_Min.xlsx
@@ -137,7 +137,7 @@
     <t>Dysprosium</t>
   </si>
   <si>
-    <t>Copper ores and concentrates</t>
+    <t>Copper</t>
   </si>
   <si>
     <t>Raw silicon</t>
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.732359607695044E-08</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -677,10 +677,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.835182169456987E-09</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -690,13 +690,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.0003566536499805421</v>
+      </c>
+      <c r="E7">
         <v>24.27320012022722</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3.462137834953612E-06</v>
-      </c>
-      <c r="F7">
-        <v>0.0003566536499805421</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -706,10 +706,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>64.68546860909878</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -776,10 +776,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>445.7778180109428</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -792,10 +792,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>29.94055031589491</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -805,13 +805,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>246596.1924158451</v>
+      </c>
+      <c r="E7">
         <v>1541695.660510203</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>56483.93591283837</v>
-      </c>
-      <c r="F7">
-        <v>246596.1924158451</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -821,10 +821,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4108453.18123563</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -891,10 +891,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>406.7914675083024</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>27.32204230204671</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -920,13 +920,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>231255.2108900015</v>
+      </c>
+      <c r="E7">
         <v>1540312.598571296</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>51544.02541416809</v>
-      </c>
-      <c r="F7">
-        <v>231255.2108900015</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -936,10 +936,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4104767.469867102</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.337204531661218E-07</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>2.241424677442844E-08</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1035,13 +1035,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.003653381817759072</v>
+      </c>
+      <c r="E7">
         <v>47.02995580561954</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>4.228529085082446E-05</v>
-      </c>
-      <c r="F7">
-        <v>0.003653381817759072</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1051,10 +1051,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>125.3297758385238</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1121,10 +1121,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.430377332393985E-06</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1137,10 +1137,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>2.30400394486489E-07</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1150,13 +1150,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.03217202551496984</v>
+      </c>
+      <c r="E7">
         <v>95.50555834750607</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.0004346587146582494</v>
-      </c>
-      <c r="F7">
-        <v>0.03217202551496984</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1166,10 +1166,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>254.512044801789</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1236,10 +1236,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.478288374094517E-05</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1252,10 +1252,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.66453589128683E-06</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1265,13 +1265,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.2032628489683213</v>
+      </c>
+      <c r="E7">
         <v>164.3123803736658</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.003140207431596583</v>
-      </c>
-      <c r="F7">
-        <v>0.2032628489683213</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1281,10 +1281,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>437.8748277978423</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.0001664365748658905</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1367,10 +1367,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.11786689306624E-05</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1380,13 +1380,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1.216042236010131</v>
+      </c>
+      <c r="E7">
         <v>308.5240651604096</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.02108896505937519</v>
-      </c>
-      <c r="F7">
-        <v>1.216042236010131</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1396,10 +1396,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>822.1834629647675</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.0009244453909920774</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>6.209013240451549E-05</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1495,13 +1495,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>6.114013697622344</v>
+      </c>
+      <c r="E7">
         <v>547.9120926823758</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.1171352905191741</v>
-      </c>
-      <c r="F7">
-        <v>6.114013697622344</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1511,10 +1511,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1460.126818722066</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.003749811900712411</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1597,10 +1597,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.0002518551335492101</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1610,13 +1610,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>22.75652587300004</v>
+      </c>
+      <c r="E7">
         <v>790.382023735286</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.475133859351968</v>
-      </c>
-      <c r="F7">
-        <v>22.75652587300004</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1626,10 +1626,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2106.283116041241</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1696,10 +1696,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.01618905906927102</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.001087333909509615</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1725,13 +1725,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>91.17202177996209</v>
+      </c>
+      <c r="E7">
         <v>1317.134077707044</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2.051294923192909</v>
-      </c>
-      <c r="F7">
-        <v>91.17202177996209</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1741,10 +1741,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3510.020706602064</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1811,10 +1811,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.06463222256053414</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1827,10 +1827,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.004341006289268275</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1840,13 +1840,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>340.6999118462496</v>
+      </c>
+      <c r="E7">
         <v>2164.108057809874</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>8.189466073710966</v>
-      </c>
-      <c r="F7">
-        <v>340.6999118462496</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1856,10 +1856,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5767.115301929456</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1926,10 +1926,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.2413686828503311</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1942,10 +1942,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.01621146432500198</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1955,13 +1955,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1196.265444977904</v>
+      </c>
+      <c r="E7">
         <v>3508.975629749496</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>30.58351641254085</v>
-      </c>
-      <c r="F7">
-        <v>1196.265444977904</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1971,10 +1971,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>9351.042788919625</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2156,10 +2156,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.7491520880681777</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2172,10 +2172,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.05031660365503519</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2185,13 +2185,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>3476.763793163669</v>
+      </c>
+      <c r="E7">
         <v>4977.724559484172</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>94.92410080030781</v>
-      </c>
-      <c r="F7">
-        <v>3476.763793163669</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2201,10 +2201,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>13265.10077544071</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2271,10 +2271,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.27204772800562</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.1526014901862997</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2300,13 +2300,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>9646.768706683495</v>
+      </c>
+      <c r="E7">
         <v>7349.714104397569</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>287.8882552573066</v>
-      </c>
-      <c r="F7">
-        <v>9646.768706683495</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2316,10 +2316,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>19586.19789030971</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2386,10 +2386,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>6.112957343325407</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2402,10 +2402,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.4105751778619474</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2415,13 +2415,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>22317.98008993233</v>
+      </c>
+      <c r="E7">
         <v>10676.33333693652</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>774.56498925622</v>
-      </c>
-      <c r="F7">
-        <v>22317.98008993233</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2431,10 +2431,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>28451.28048654746</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2501,10 +2501,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>11.28784461113413</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2517,10 +2517,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.7581451249540834</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2530,13 +2530,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>31916.27187448975</v>
+      </c>
+      <c r="E7">
         <v>12955.95341841746</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1430.268321681559</v>
-      </c>
-      <c r="F7">
-        <v>31916.27187448975</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2546,10 +2546,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>34526.22291238885</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2616,10 +2616,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>16.29756122095086</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2632,10 +2632,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.094621428090617</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2645,13 +2645,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>35863.59911130611</v>
+      </c>
+      <c r="E7">
         <v>17651.33703685317</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2065.043091751935</v>
-      </c>
-      <c r="F7">
-        <v>35863.59911130611</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2661,10 +2661,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>47038.91543556805</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2731,10 +2731,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>13.11655582636928</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2747,10 +2747,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.8809700344511395</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2760,13 +2760,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>33820.78745420165</v>
+      </c>
+      <c r="E7">
         <v>22830.37097967124</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1661.981975683731</v>
-      </c>
-      <c r="F7">
-        <v>33820.78745420165</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2776,10 +2776,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>60840.48407399609</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2846,10 +2846,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>7.033545368955766</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2862,10 +2862,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.4724062313328932</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2875,13 +2875,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>34594.99256050501</v>
+      </c>
+      <c r="E7">
         <v>28821.75692456248</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>891.2115179548623</v>
-      </c>
-      <c r="F7">
-        <v>34594.99256050501</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2891,10 +2891,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>76806.88345865333</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>7.374439697104411</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2977,10 +2977,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.4953023095403719</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2990,13 +2990,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>36704.94955905423</v>
+      </c>
+      <c r="E7">
         <v>35554.76630265493</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>934.4058013090994</v>
-      </c>
-      <c r="F7">
-        <v>36704.94955905423</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3006,10 +3006,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>94749.62955781457</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3076,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>12.21160792121541</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3092,10 +3092,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.8201894455729871</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3105,13 +3105,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>38976.28604158276</v>
+      </c>
+      <c r="E7">
         <v>42907.92408688936</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1547.317186602832</v>
-      </c>
-      <c r="F7">
-        <v>38976.28604158276</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3121,10 +3121,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>114345.0044846454</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3191,10 +3191,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>17.27880866061424</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3207,10 +3207,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.160526655207285</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3220,13 +3220,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>40482.34164767549</v>
+      </c>
+      <c r="E7">
         <v>50723.55885247488</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2189.375697048195</v>
-      </c>
-      <c r="F7">
-        <v>40482.34164767549</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3236,10 +3236,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>135172.8308439796</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3335,10 +3335,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.0004309321198885123</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3351,10 +3351,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.001148387768223114</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3421,10 +3421,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>24.49352215276838</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3437,10 +3437,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.645100996053703</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3450,13 +3450,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>42706.31076258987</v>
+      </c>
+      <c r="E7">
         <v>58850.59078861915</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3103.542795668435</v>
-      </c>
-      <c r="F7">
-        <v>42706.31076258987</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3466,10 +3466,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>156830.4971832658</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3536,10 +3536,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>32.49189813178681</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3552,10 +3552,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>2.182309822445707</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3565,13 +3565,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>45744.42169450947</v>
+      </c>
+      <c r="E7">
         <v>67204.51353572939</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>4117.006763484288</v>
-      </c>
-      <c r="F7">
-        <v>45744.42169450947</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3581,10 +3581,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>179092.8031398146</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3651,10 +3651,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>37.20477621278975</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3667,10 +3667,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>2.498849043590809</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3680,13 +3680,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>45107.87239254595</v>
+      </c>
+      <c r="E7">
         <v>75841.07052509037</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>4714.169504062502</v>
-      </c>
-      <c r="F7">
-        <v>45107.87239254595</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3696,10 +3696,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>202108.298964795</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3766,10 +3766,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>47.41013645792282</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3782,10 +3782,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>3.184289389803234</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3795,13 +3795,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>45086.79337121163</v>
+      </c>
+      <c r="E7">
         <v>85042.62646011183</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>6007.277619279161</v>
-      </c>
-      <c r="F7">
-        <v>45086.79337121163</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3811,10 +3811,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>226629.4562346064</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3881,10 +3881,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>78.11668069315913</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3897,10 +3897,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>5.24668638569812</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3910,13 +3910,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>45854.17984863283</v>
+      </c>
+      <c r="E7">
         <v>95409.43916020256</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>9898.064479035489</v>
-      </c>
-      <c r="F7">
-        <v>45854.17984863283</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3926,10 +3926,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>254255.8975017931</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3996,10 +3996,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>122.2306346450209</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4012,10 +4012,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>8.209588541355325</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4025,13 +4025,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>46234.85066845149</v>
+      </c>
+      <c r="E7">
         <v>107940.7461173042</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>15487.6870380873</v>
-      </c>
-      <c r="F7">
-        <v>46234.85066845149</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4041,10 +4041,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>287650.4832502582</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>171.906172817819</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4127,10 +4127,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>11.54603304361477</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4140,13 +4140,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>48600.76612541257</v>
+      </c>
+      <c r="E7">
         <v>124085.9104027846</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>21782.01080481903</v>
-      </c>
-      <c r="F7">
-        <v>48600.76612541257</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4156,10 +4156,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>330675.6102382282</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4226,10 +4226,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>209.6739225694731</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4242,10 +4242,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>14.08269405739758</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4255,13 +4255,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>49987.06617685158</v>
+      </c>
+      <c r="E7">
         <v>145742.5446797409</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>26567.51396435978</v>
-      </c>
-      <c r="F7">
-        <v>49987.06617685158</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4271,10 +4271,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>388388.2121927362</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4341,10 +4341,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>189.5256100988802</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4357,10 +4357,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>12.72943793084139</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4370,13 +4370,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>48805.91359791016</v>
+      </c>
+      <c r="E7">
         <v>175181.2036972554</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>24014.54711773917</v>
-      </c>
-      <c r="F7">
-        <v>48805.91359791016</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4386,10 +4386,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>466839.0734034324</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4456,10 +4456,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>174.9275936857644</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4472,10 +4472,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>11.74896598434713</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4485,13 +4485,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>45778.480501798</v>
+      </c>
+      <c r="E7">
         <v>214877.9174964682</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>22164.85117007595</v>
-      </c>
-      <c r="F7">
-        <v>45778.480501798</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4501,10 +4501,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>572626.547721809</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4600,10 +4600,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.01486744235693814</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4616,10 +4616,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.03962013542153028</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4686,10 +4686,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>168.4149719014675</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4702,10 +4702,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>11.31154744905261</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4715,13 +4715,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>45114.85849076889</v>
+      </c>
+      <c r="E7">
         <v>267250.2915197843</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>21339.64521180247</v>
-      </c>
-      <c r="F7">
-        <v>45114.85849076889</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4731,10 +4731,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>712193.2937251985</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4801,10 +4801,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>152.0010356871608</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4817,10 +4817,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>10.20910972503316</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4830,13 +4830,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>53173.51830291784</v>
+      </c>
+      <c r="E7">
         <v>334338.5078507529</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>19259.85639381431</v>
-      </c>
-      <c r="F7">
-        <v>53173.51830291784</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4846,10 +4846,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>890976.177317915</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4916,10 +4916,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>134.1455959355791</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4932,10 +4932,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>9.009853793726274</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4945,13 +4945,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>71402.52374192148</v>
+      </c>
+      <c r="E7">
         <v>417473.0037475794</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>16997.41651036742</v>
-      </c>
-      <c r="F7">
-        <v>71402.52374192148</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4961,10 +4961,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1112520.670752309</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5031,10 +5031,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>128.5206564010432</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5047,10 +5047,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>8.632056204090482</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5060,13 +5060,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>105538.3901892378</v>
+      </c>
+      <c r="E7">
         <v>516965.8224061207</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>16284.68763211149</v>
-      </c>
-      <c r="F7">
-        <v>105538.3901892378</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5076,10 +5076,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1377658.335596296</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5146,10 +5146,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>181.7807840318038</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5162,10 +5162,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>12.20925871783384</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5175,13 +5175,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>155971.6657408079</v>
+      </c>
+      <c r="E7">
         <v>631856.9007188836</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>23033.21013425992</v>
-      </c>
-      <c r="F7">
-        <v>155971.6657408079</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5191,10 +5191,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1683830.70688873</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5261,10 +5261,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>268.9469919655672</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5277,10 +5277,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>18.06375422891945</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5290,13 +5290,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>214285.254959597</v>
+      </c>
+      <c r="E7">
         <v>759740.5716043619</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>34077.92861007914</v>
-      </c>
-      <c r="F7">
-        <v>214285.254959597</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5306,10 +5306,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2024626.940500529</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5376,10 +5376,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>364.2656376530753</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5392,10 +5392,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>24.46580608511957</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5405,13 +5405,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>280604.471689683</v>
+      </c>
+      <c r="E7">
         <v>896701.8364276427</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>46155.63202371015</v>
-      </c>
-      <c r="F7">
-        <v>280604.471689683</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5421,10 +5421,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2389613.985987215</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5491,10 +5491,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>516.5051730518181</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5507,10 +5507,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>34.6909345807744</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5520,13 +5520,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>388105.1327128012</v>
+      </c>
+      <c r="E7">
         <v>1037393.86033153</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>65445.70841026513</v>
-      </c>
-      <c r="F7">
-        <v>388105.1327128012</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5536,10 +5536,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2764543.103314506</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5606,10 +5606,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>688.9140773470847</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5622,10 +5622,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>46.27073345231453</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5635,13 +5635,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>508118.5873485069</v>
+      </c>
+      <c r="E7">
         <v>1175288.898502909</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>87291.41967617981</v>
-      </c>
-      <c r="F7">
-        <v>508118.5873485069</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5651,10 +5651,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3132018.554380071</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5721,10 +5721,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>753.4400662022397</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5737,10 +5737,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>50.60460458260307</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5750,13 +5750,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>551442.7967426812</v>
+      </c>
+      <c r="E7">
         <v>1303124.370323093</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>95467.42501325477</v>
-      </c>
-      <c r="F7">
-        <v>551442.7967426812</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5766,10 +5766,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3472686.34266494</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5865,10 +5865,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.1154244263116016</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5881,10 +5881,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.3075936863669069</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5951,10 +5951,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>757.6994639600568</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5967,10 +5967,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>50.89068591669091</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5980,13 +5980,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>551810.7796131093</v>
+      </c>
+      <c r="E7">
         <v>1413535.427084832</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>96007.12784336267</v>
-      </c>
-      <c r="F7">
-        <v>551810.7796131093</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5996,10 +5996,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3766919.938189388</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6066,10 +6066,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>753.4004835060391</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6082,10 +6082,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>50.60194602118673</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6095,13 +6095,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>545199.2984587246</v>
+      </c>
+      <c r="E7">
         <v>1499818.4812667</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>95462.40954055714</v>
-      </c>
-      <c r="F7">
-        <v>545199.2984587246</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6111,10 +6111,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3996855.000939001</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6181,10 +6181,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>738.916697263445</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6197,10 +6197,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>49.62914631415775</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6210,13 +6210,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>529619.9316970888</v>
+      </c>
+      <c r="E7">
         <v>1556721.339270031</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>93627.18755137807</v>
-      </c>
-      <c r="F7">
-        <v>529619.9316970888</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6226,10 +6226,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4148494.999658217</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6296,10 +6296,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>723.619359497097</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6312,10 +6312,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>48.60170463225391</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6325,13 +6325,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>509516.9711794145</v>
+      </c>
+      <c r="E7">
         <v>1581124.937559384</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>91688.88149145154</v>
-      </c>
-      <c r="F7">
-        <v>509516.9711794145</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6341,10 +6341,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4213527.965368392</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6411,10 +6411,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>726.076360839623</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6427,10 +6427,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>48.76672848348628</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6440,13 +6440,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>495263.0666051162</v>
+      </c>
+      <c r="E7">
         <v>1572485.922172356</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>92000.20498212731</v>
-      </c>
-      <c r="F7">
-        <v>495263.0666051162</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6456,10 +6456,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4190505.918177942</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6526,10 +6526,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>724.9329563506136</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6542,10 +6542,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>48.68993202064891</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6555,13 +6555,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>471606.9988826714</v>
+      </c>
+      <c r="E7">
         <v>1532953.276571708</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>91855.32566496471</v>
-      </c>
-      <c r="F7">
-        <v>471606.9988826714</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6571,10 +6571,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4085155.667969093</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6641,10 +6641,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>673.5713048321077</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6657,10 +6657,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>45.24024015742671</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6670,13 +6670,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>410924.6631298686</v>
+      </c>
+      <c r="E7">
         <v>1467144.492437185</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>85347.35663749369</v>
-      </c>
-      <c r="F7">
-        <v>410924.6631298686</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6686,10 +6686,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3909782.333622905</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6756,10 +6756,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>528.7565023261908</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6772,10 +6772,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>35.5137919006219</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6785,13 +6785,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>291157.0885626704</v>
+      </c>
+      <c r="E7">
         <v>1381642.06595644</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>66998.05863861086</v>
-      </c>
-      <c r="F7">
-        <v>291157.0885626704</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6801,10 +6801,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3681927.559768295</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6871,10 +6871,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>343.6850014541609</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6887,10 +6887,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>23.08351304865538</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6900,13 +6900,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>156186.5954081235</v>
+      </c>
+      <c r="E7">
         <v>1284321.030203061</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>43547.88599163553</v>
-      </c>
-      <c r="F7">
-        <v>156186.5954081235</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6916,10 +6916,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3422577.462869279</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6986,10 +6986,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>263.894821941372</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7002,10 +7002,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>17.7244265533325</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7015,13 +7015,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>106709.6253161162</v>
+      </c>
+      <c r="E7">
         <v>1183622.598022417</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>33437.77462229054</v>
-      </c>
-      <c r="F7">
-        <v>106709.6253161162</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7031,10 +7031,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3154226.967609341</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7101,10 +7101,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>9.917754311991267E-15</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7117,10 +7117,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>6.661233690895967E-16</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7130,13 +7130,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>2.695994188210438E-10</v>
+      </c>
+      <c r="E7">
         <v>0.4741270627179542</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.25666593608756E-12</v>
-      </c>
-      <c r="F7">
-        <v>2.695994188210438E-10</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7146,10 +7146,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1.2634976467981</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7216,10 +7216,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>244.1270762567362</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7232,10 +7232,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>16.39673109521501</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7245,13 +7245,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>103593.1453765103</v>
+      </c>
+      <c r="E7">
         <v>1087849.411775633</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>30933.02890530009</v>
-      </c>
-      <c r="F7">
-        <v>103593.1453765103</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7261,10 +7261,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2899001.723229751</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7331,10 +7331,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>221.9635980264148</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7347,10 +7347,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>14.90812688854745</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7360,13 +7360,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>103452.3405681629</v>
+      </c>
+      <c r="E7">
         <v>1004511.574294087</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>28124.7229883459</v>
-      </c>
-      <c r="F7">
-        <v>103452.3405681629</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7376,10 +7376,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2676915.346334165</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7446,10 +7446,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>191.7739266427941</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7462,10 +7462,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>12.88044552226771</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7475,13 +7475,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>105238.9888709771</v>
+      </c>
+      <c r="E7">
         <v>939732.4094789661</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>24299.42842507935</v>
-      </c>
-      <c r="F7">
-        <v>105238.9888709771</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7491,10 +7491,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2504285.836775585</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7561,10 +7561,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>172.371951108792</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7577,10 +7577,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>11.57731692045538</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7590,13 +7590,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>117678.8466915205</v>
+      </c>
+      <c r="E7">
         <v>897742.9347291342</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>21841.02897502388</v>
-      </c>
-      <c r="F7">
-        <v>117678.8466915205</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7606,10 +7606,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2392388.401027942</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7676,10 +7676,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>198.0941555892884</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7692,10 +7692,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>13.30494204303412</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7705,13 +7705,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>155753.8005201897</v>
+      </c>
+      <c r="E7">
         <v>880536.0070677102</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>25100.25653348802</v>
-      </c>
-      <c r="F7">
-        <v>155753.8005201897</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7721,10 +7721,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2346533.788797617</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7791,10 +7791,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>268.4382503570334</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7807,10 +7807,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>18.02958473211482</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7820,13 +7820,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>213260.4047893511</v>
+      </c>
+      <c r="E7">
         <v>887772.2417444384</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>34013.46661297745</v>
-      </c>
-      <c r="F7">
-        <v>213260.4047893511</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7836,10 +7836,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2365817.576213827</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7906,10 +7906,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>367.3800794591462</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7922,10 +7922,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>24.67498675278191</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7935,13 +7935,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>283295.7651241483</v>
+      </c>
+      <c r="E7">
         <v>916996.0523808238</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>46550.25895280079</v>
-      </c>
-      <c r="F7">
-        <v>283295.7651241483</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7951,10 +7951,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2443695.889588044</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8021,10 +8021,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>485.7510294212887</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8037,10 +8037,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>32.62534058396965</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8050,13 +8050,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>365734.9122275951</v>
+      </c>
+      <c r="E7">
         <v>964134.5767645286</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>61548.89029214509</v>
-      </c>
-      <c r="F7">
-        <v>365734.9122275951</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8066,10 +8066,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2569314.989014512</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>609.9915050195378</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8152,10 +8152,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>40.9699195662033</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8165,13 +8165,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>452179.5753002855</v>
+      </c>
+      <c r="E7">
         <v>1024160.158487707</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>77291.2417011598</v>
-      </c>
-      <c r="F7">
-        <v>452179.5753002855</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8181,10 +8181,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2729276.710710283</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8251,10 +8251,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>705.6500262312428</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8267,10 +8267,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>47.39479907291049</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8280,13 +8280,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>517647.1528561079</v>
+      </c>
+      <c r="E7">
         <v>1091752.938756828</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>89412.01030680227</v>
-      </c>
-      <c r="F7">
-        <v>517647.1528561079</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8296,10 +8296,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2909404.202950438</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8366,10 +8366,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.059901325591962E-12</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8382,10 +8382,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>7.118799475121232E-14</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8395,13 +8395,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>2.443352995944197E-08</v>
+      </c>
+      <c r="E7">
         <v>1.514353279963156</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.342987383620762E-10</v>
-      </c>
-      <c r="F7">
-        <v>2.443352995944197E-08</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8411,10 +8411,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4.035588676769231</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8481,10 +8481,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>748.0414224326382</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8497,10 +8497,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>50.24200608871082</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8510,13 +8510,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>544625.0527146276</v>
+      </c>
+      <c r="E7">
         <v>1161829.416853235</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>94783.36978130302</v>
-      </c>
-      <c r="F7">
-        <v>544625.0527146276</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8526,10 +8526,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3096150.482867767</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8596,10 +8596,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>753.5009231520345</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8612,10 +8612,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>50.60869202368647</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8625,13 +8625,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>544355.5765635383</v>
+      </c>
+      <c r="E7">
         <v>1229883.858672645</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>95475.13611935555</v>
-      </c>
-      <c r="F7">
-        <v>544355.5765635383</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8641,10 +8641,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3277508.253504316</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8711,10 +8711,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>745.7167695258161</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8727,10 +8727,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>50.08587138547623</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8740,13 +8740,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>532704.8920664091</v>
+      </c>
+      <c r="E7">
         <v>1292168.871236447</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>94488.8159912683</v>
-      </c>
-      <c r="F7">
-        <v>532704.8920664091</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8756,10 +8756,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3443491.115469671</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8826,10 +8826,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>733.9672199979402</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8842,10 +8842,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>49.29671597079421</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8855,13 +8855,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>514970.2134019452</v>
+      </c>
+      <c r="E7">
         <v>1345777.471898503</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>93000.04563140942</v>
-      </c>
-      <c r="F7">
-        <v>514970.2134019452</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8871,10 +8871,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3586352.272553507</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8941,10 +8941,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>720.939994572149</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8957,10 +8957,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>48.42174578928592</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8970,13 +8970,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>491892.5132546588</v>
+      </c>
+      <c r="E7">
         <v>1388676.643926492</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>91349.38259627737</v>
-      </c>
-      <c r="F7">
-        <v>491892.5132546588</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8986,10 +8986,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3700673.953742152</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9056,10 +9056,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>700.6873976170998</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9072,10 +9072,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>47.06148542266241</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9085,13 +9085,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>459449.2042147778</v>
+      </c>
+      <c r="E7">
         <v>1419709.703446959</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>88783.20199630532</v>
-      </c>
-      <c r="F7">
-        <v>459449.2042147778</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9101,10 +9101,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3783373.720872678</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9171,10 +9171,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>656.0558471064503</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9187,10 +9187,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>44.06381902978752</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9200,13 +9200,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>408273.2825074848</v>
+      </c>
+      <c r="E7">
         <v>1438563.562986559</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>83127.99544075561</v>
-      </c>
-      <c r="F7">
-        <v>408273.2825074848</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9216,10 +9216,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3833617.229489942</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9286,10 +9286,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>576.883572517742</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9302,10 +9302,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>38.74623395674811</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9315,13 +9315,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>336098.5972259566</v>
+      </c>
+      <c r="E7">
         <v>1445696.864866344</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>73096.17801229737</v>
-      </c>
-      <c r="F7">
-        <v>336098.5972259566</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9331,10 +9331,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3852626.712069025</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9401,10 +9401,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>482.4485254216272</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9417,10 +9417,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>32.4035287683627</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9430,13 +9430,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>261104.5441953431</v>
+      </c>
+      <c r="E7">
         <v>1442236.281670684</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>61130.43424356666</v>
-      </c>
-      <c r="F7">
-        <v>261104.5441953431</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9446,10 +9446,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3843404.629914082</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9516,10 +9516,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>406.9720934114348</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9532,10 +9532,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>27.33417399349161</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9545,13 +9545,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>209078.7905111741</v>
+      </c>
+      <c r="E7">
         <v>1429856.099183342</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>51566.91229082392</v>
-      </c>
-      <c r="F7">
-        <v>209078.7905111741</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9561,10 +9561,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3810412.774629517</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9631,10 +9631,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.458440057735618E-11</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9647,10 +9647,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>3.666146959131956E-12</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9660,13 +9660,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1.054987172894229E-06</v>
+      </c>
+      <c r="E7">
         <v>4.490245955119203</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>6.916319429730802E-09</v>
-      </c>
-      <c r="F7">
-        <v>1.054987172894229E-06</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9676,10 +9676,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>11.96602270563232</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9746,10 +9746,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>357.4152335083238</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9762,10 +9762,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>24.00570048611214</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9775,13 +9775,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>183317.2651815672</v>
+      </c>
+      <c r="E7">
         <v>1410654.178584058</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>45287.62609551997</v>
-      </c>
-      <c r="F7">
-        <v>183317.2651815672</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9791,10 +9791,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3759241.720709671</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9861,10 +9861,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>327.8435912213506</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9877,10 +9877,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>22.01952888213379</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9890,13 +9890,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>177069.8381925922</v>
+      </c>
+      <c r="E7">
         <v>1387028.758214993</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>41540.641206887</v>
-      </c>
-      <c r="F7">
-        <v>177069.8381925922</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9906,10 +9906,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3696282.515491961</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9976,10 +9976,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>306.053520029864</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9992,10 +9992,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>20.5560044613659</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10005,13 +10005,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>180501.9109009518</v>
+      </c>
+      <c r="E7">
         <v>1361550.956717924</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>38779.64921718263</v>
-      </c>
-      <c r="F7">
-        <v>180501.9109009518</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10021,10 +10021,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3628386.913725214</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10091,10 +10091,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>294.6199390904931</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10107,10 +10107,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>19.78807099412082</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10120,13 +10120,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>193438.2178032795</v>
+      </c>
+      <c r="E7">
         <v>1336822.847124802</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>37330.91483215806</v>
-      </c>
-      <c r="F7">
-        <v>193438.2178032795</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10136,10 +10136,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3562489.160280034</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10206,10 +10206,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>310.5353286906818</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10222,10 +10222,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>20.85702396546365</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10235,13 +10235,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>223408.1980419539</v>
+      </c>
+      <c r="E7">
         <v>1315313.461288744</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>39347.53344771879</v>
-      </c>
-      <c r="F7">
-        <v>223408.1980419539</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10251,10 +10251,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3505168.959589236</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10321,10 +10321,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>362.3843516867846</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10337,10 +10337,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>24.33945000624681</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10350,13 +10350,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>272186.2660655139</v>
+      </c>
+      <c r="E7">
         <v>1299175.487828671</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>45917.25669039316</v>
-      </c>
-      <c r="F7">
-        <v>272186.2660655139</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10366,10 +10366,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3462162.99537786</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10436,10 +10436,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>444.4921268552314</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10452,10 +10452,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>29.85419720637942</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10465,13 +10465,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>335045.8506806465</v>
+      </c>
+      <c r="E7">
         <v>1290060.804104212</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>56321.02763452401</v>
-      </c>
-      <c r="F7">
-        <v>335045.8506806465</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10481,10 +10481,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3437873.34320921</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10551,10 +10551,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>543.7020037435593</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10567,10 +10567,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>36.51760258635687</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10580,13 +10580,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>405467.9512538065</v>
+      </c>
+      <c r="E7">
         <v>1288965.935451478</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>68891.7839657494</v>
-      </c>
-      <c r="F7">
-        <v>405467.9512538065</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10596,10 +10596,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3434955.635963495</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10666,10 +10666,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>645.9625475012768</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>43.38590520708879</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10695,13 +10695,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>476371.5456139264</v>
+      </c>
+      <c r="E7">
         <v>1296141.826576161</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>81849.08638558656</v>
-      </c>
-      <c r="F7">
-        <v>476371.5456139264</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10711,10 +10711,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3454078.614301286</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10781,10 +10781,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>735.7790340024141</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10797,10 +10797,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>49.41840598355897</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10810,13 +10810,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>537705.0852249549</v>
+      </c>
+      <c r="E7">
         <v>1311092.006420501</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>93229.61826149524</v>
-      </c>
-      <c r="F7">
-        <v>537705.0852249549</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10826,10 +10826,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3493919.236231296</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10896,10 +10896,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.603263535776912E-09</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10912,10 +10912,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.076827751922593E-10</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10925,13 +10925,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>2.539957750807418E-05</v>
+      </c>
+      <c r="E7">
         <v>11.65681248014648</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2.031474675215688E-07</v>
-      </c>
-      <c r="F7">
-        <v>2.539957750807418E-05</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10941,10 +10941,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>31.06415198786767</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11011,10 +11011,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>795.3212899399095</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11027,10 +11027,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>53.41754599858482</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11040,13 +11040,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>576696.0193316311</v>
+      </c>
+      <c r="E7">
         <v>1332662.524524631</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>100774.1411888266</v>
-      </c>
-      <c r="F7">
-        <v>576696.0193316311</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11056,10 +11056,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3551402.347843924</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11126,10 +11126,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>819.4685039730222</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11142,10 +11142,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>55.03938730054333</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11155,13 +11155,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>589339.7698857978</v>
+      </c>
+      <c r="E7">
         <v>1359205.092904286</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>103833.8037265584</v>
-      </c>
-      <c r="F7">
-        <v>589339.7698857978</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11171,10 +11171,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3622135.438875307</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11241,10 +11241,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>818.4680863643047</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11257,10 +11257,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>54.97219451404631</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11270,13 +11270,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>582280.8373561763</v>
+      </c>
+      <c r="E7">
         <v>1388780.405660416</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>103707.042093714</v>
-      </c>
-      <c r="F7">
-        <v>582280.8373561763</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11286,10 +11286,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3700950.467607209</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11356,10 +11356,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>805.4801658368759</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>54.09986423573539</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11385,13 +11385,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>564031.2528836832</v>
+      </c>
+      <c r="E7">
         <v>1419366.409981701</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>102061.3593318717</v>
-      </c>
-      <c r="F7">
-        <v>564031.2528836832</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11401,10 +11401,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3782458.880696656</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11471,10 +11471,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>787.4626628131741</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11487,10 +11487,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>52.8897233672306</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11500,13 +11500,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>538931.0757617492</v>
+      </c>
+      <c r="E7">
         <v>1449044.012844236</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>99778.38461895054</v>
-      </c>
-      <c r="F7">
-        <v>538931.0757617492</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11516,10 +11516,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3861546.501564498</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11586,10 +11586,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>761.1355426028902</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11602,10 +11602,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>51.12146923819883</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11615,13 +11615,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>505000.6320583594</v>
+      </c>
+      <c r="E7">
         <v>1476144.384767703</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>96442.50896375865</v>
-      </c>
-      <c r="F7">
-        <v>505000.6320583594</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11631,10 +11631,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3933766.079068395</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11701,10 +11701,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>718.8023791687762</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11717,10 +11717,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>48.27817341095114</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11730,13 +11730,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>458597.8377865276</v>
+      </c>
+      <c r="E7">
         <v>1499352.52611611</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>91078.52808855608</v>
-      </c>
-      <c r="F7">
-        <v>458597.8377865276</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11746,10 +11746,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3995613.280559429</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11816,10 +11816,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>655.7049574470115</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11832,10 +11832,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>44.04025161777355</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11845,13 +11845,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>399512.1693399936</v>
+      </c>
+      <c r="E7">
         <v>1517767.999479185</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>83083.53466178582</v>
-      </c>
-      <c r="F7">
-        <v>399512.1693399936</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11861,10 +11861,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4044688.537148948</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11931,10 +11931,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>578.2398387514772</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11947,10 +11947,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>38.83732722288253</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11960,13 +11960,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>335675.585246505</v>
+      </c>
+      <c r="E7">
         <v>1530926.64776096</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>73268.02876828358</v>
-      </c>
-      <c r="F7">
-        <v>335675.585246505</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11976,10 +11976,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4079754.920079628</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -12046,10 +12046,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>503.7411824875222</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -12062,10 +12062,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>33.83364449974903</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -12075,13 +12075,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>281477.1402615285</v>
+      </c>
+      <c r="E7">
         <v>1538788.231419419</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>63828.39952701318</v>
-      </c>
-      <c r="F7">
-        <v>281477.1402615285</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -12091,10 +12091,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4100705.195298316</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
